--- a/biology/Microbiologie/Milieu_Bordet_Gengou/Milieu_Bordet_Gengou.xlsx
+++ b/biology/Microbiologie/Milieu_Bordet_Gengou/Milieu_Bordet_Gengou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu de Bordet et Gengou est un milieu d'isolement sélectif (quand il est additionné de céfalexine à 40 mg/l) de Bordetella pertussis.
 C'est en 1906 que Bordet et Gengou font pousser le bacille (décrit 6 ans plus tôt par Bordet) responsable de la coqueluche sur ce milieu.
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">- Peptone........................  10   g
 - Extrait de viande..............  10   g
@@ -554,7 +568,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu est un milieu solide (agar à 12 g/l), très riche, contenant deux détoxifiant, le charbon et l'amidon. L'antibiotique ajouté (céfalexine) permet la sélection des Bordetella.
 </t>
@@ -585,7 +601,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies de Bordetella pertussis apparaissent après 5 à 6 jours à 37 °C et sont caractéristiques. Elles sont de type S (dans un premier temps, puis R), en gouttelette de mercure et hémolytiques.
 </t>
